--- a/user-data/oda-percent-intl-resources/oda-percent-intl-resources.xlsx
+++ b/user-data/oda-percent-intl-resources/oda-percent-intl-resources.xlsx
@@ -964,7 +964,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 57</t>
+    <t xml:space="preserve">Source: 56</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
